--- a/medicine/Pharmacie/Production_pharmaceutique_industrielle/Production_pharmaceutique_industrielle.xlsx
+++ b/medicine/Pharmacie/Production_pharmaceutique_industrielle/Production_pharmaceutique_industrielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La production pharmaceutique industrielle est réglementée par les organismes de santé du pays de commercialisation (ANSM ex AFSSAPS en France, FDA pour les États-Unis, etc.) et par la législation du pays de production (code de la santé publique, articles L596 et L600).
 </t>
@@ -511,7 +523,9 @@
           <t>Le produit pharmaceutique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour obtenir leur autorisation de mise sur le marché (AMM) et acquérir ainsi le statut de médicament, les substances ou compositions candidates au titre de médicament doivent apporter la preuve scientifique de leur qualité, leur efficacité et de leur innocuité.
 </t>
@@ -542,7 +556,9 @@
           <t>Les référentiels réglementaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Autorisation de mise sur le marché (AMM) : elle définit le produit pharmaceutique, les méthodes de production et de contrôle mises en œuvre.
 Durant la fabrication, un dossier sera constitué pour chaque lot afin de démontrer que le lot de produit correspond en tout point à l'AMM dont il fait l'objet.
@@ -576,7 +592,9 @@
           <t>La démarche de qualification / validation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine pharmaceutique, le vocabulaire employé a une signification précise :
 On valide une démarche, un procédé, une méthode, une manière de faire.
@@ -612,7 +630,9 @@
           <t>Les étapes de la qualification (modèle 4Q)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Qualification de la conception (QC ; DQ pour Design Qualification) : vérification documentée que la conception proposée des installations, systèmes et équipements convient aux usages auxquels ils sont destinés.
 Qualification de l'installation (QI ; IQ pour Installation Qualification) : vérification documentée que les installations, systèmes et équipements, tels qu'ils ont été installés ou modifiés, sont conformes à la conception approuvée et aux recommandations du fabricant.
